--- a/outcome/simulate data/B_Other infectious diarrhea.xlsx
+++ b/outcome/simulate data/B_Other infectious diarrhea.xlsx
@@ -412,19 +412,19 @@
         <v>44713</v>
       </c>
       <c r="B2" t="n">
-        <v>124764.812920975</v>
+        <v>127263.115225034</v>
       </c>
       <c r="C2" t="n">
-        <v>93647.0160845755</v>
+        <v>102344.553189786</v>
       </c>
       <c r="D2" t="n">
-        <v>77174.2494841774</v>
+        <v>89153.4632619784</v>
       </c>
       <c r="E2" t="n">
-        <v>155882.609757375</v>
+        <v>152181.677260282</v>
       </c>
       <c r="F2" t="n">
-        <v>172355.376357773</v>
+        <v>165372.76718809</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>44713</v>
@@ -450,19 +450,19 @@
         <v>44743</v>
       </c>
       <c r="B3" t="n">
-        <v>138591.989667747</v>
+        <v>144451.288405933</v>
       </c>
       <c r="C3" t="n">
-        <v>107474.054087469</v>
+        <v>119532.726370685</v>
       </c>
       <c r="D3" t="n">
-        <v>91001.2140404985</v>
+        <v>106341.636442877</v>
       </c>
       <c r="E3" t="n">
-        <v>169709.925248025</v>
+        <v>169369.850441182</v>
       </c>
       <c r="F3" t="n">
-        <v>186182.765294995</v>
+        <v>182560.940368989</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>44743</v>
@@ -488,19 +488,19 @@
         <v>44774</v>
       </c>
       <c r="B4" t="n">
-        <v>139751.94129164</v>
+        <v>142656.354125781</v>
       </c>
       <c r="C4" t="n">
-        <v>108633.838089185</v>
+        <v>117737.792090532</v>
       </c>
       <c r="D4" t="n">
-        <v>92160.9093083935</v>
+        <v>104546.702162725</v>
       </c>
       <c r="E4" t="n">
-        <v>170870.044494096</v>
+        <v>167574.916161029</v>
       </c>
       <c r="F4" t="n">
-        <v>187342.973274887</v>
+        <v>180766.006088836</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>44774</v>
@@ -526,19 +526,19 @@
         <v>44805</v>
       </c>
       <c r="B5" t="n">
-        <v>112986.656540116</v>
+        <v>117445.262121232</v>
       </c>
       <c r="C5" t="n">
-        <v>81868.3848201904</v>
+        <v>92526.700085984</v>
       </c>
       <c r="D5" t="n">
-        <v>65395.3668316392</v>
+        <v>79335.6101581766</v>
       </c>
       <c r="E5" t="n">
-        <v>144104.928260041</v>
+        <v>142363.824156481</v>
       </c>
       <c r="F5" t="n">
-        <v>160577.946248592</v>
+        <v>155554.914084288</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>44805</v>
@@ -564,19 +564,19 @@
         <v>44835</v>
       </c>
       <c r="B6" t="n">
-        <v>105615.197221201</v>
+        <v>109576.670100832</v>
       </c>
       <c r="C6" t="n">
-        <v>74496.8959846428</v>
+        <v>84658.1080655841</v>
       </c>
       <c r="D6" t="n">
-        <v>58023.8623709298</v>
+        <v>71467.0181377767</v>
       </c>
       <c r="E6" t="n">
-        <v>136733.498457759</v>
+        <v>134495.232136081</v>
       </c>
       <c r="F6" t="n">
-        <v>153206.532071472</v>
+        <v>147686.322063888</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>44835</v>
@@ -602,19 +602,19 @@
         <v>44866</v>
       </c>
       <c r="B7" t="n">
-        <v>114186.107156433</v>
+        <v>111531.641157945</v>
       </c>
       <c r="C7" t="n">
-        <v>83067.80597651</v>
+        <v>86613.0801395999</v>
       </c>
       <c r="D7" t="n">
-        <v>66594.7723927782</v>
+        <v>73421.9907501085</v>
       </c>
       <c r="E7" t="n">
-        <v>145304.408336355</v>
+        <v>136450.202176291</v>
       </c>
       <c r="F7" t="n">
-        <v>161777.441920087</v>
+        <v>149641.291565782</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>44866</v>
@@ -640,19 +640,19 @@
         <v>44896</v>
       </c>
       <c r="B8" t="n">
-        <v>173607.600686822</v>
+        <v>145901.233134666</v>
       </c>
       <c r="C8" t="n">
-        <v>142489.297271787</v>
+        <v>120982.680675197</v>
       </c>
       <c r="D8" t="n">
-        <v>126016.262504857</v>
+        <v>107791.595816501</v>
       </c>
       <c r="E8" t="n">
-        <v>204725.904101857</v>
+        <v>170819.785594136</v>
       </c>
       <c r="F8" t="n">
-        <v>221198.938868787</v>
+        <v>184010.870452832</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>44896</v>
@@ -678,19 +678,19 @@
         <v>44927</v>
       </c>
       <c r="B9" t="n">
-        <v>161903.040707447</v>
+        <v>154274.308372945</v>
       </c>
       <c r="C9" t="n">
-        <v>129544.132202731</v>
+        <v>128474.539704836</v>
       </c>
       <c r="D9" t="n">
-        <v>112414.360771796</v>
+        <v>114816.967163681</v>
       </c>
       <c r="E9" t="n">
-        <v>194261.949212163</v>
+        <v>180074.077041055</v>
       </c>
       <c r="F9" t="n">
-        <v>211391.720643098</v>
+        <v>193731.649582209</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>44927</v>
@@ -716,19 +716,19 @@
         <v>44958</v>
       </c>
       <c r="B10" t="n">
-        <v>143959.857262703</v>
+        <v>136709.667436089</v>
       </c>
       <c r="C10" t="n">
-        <v>110968.455081303</v>
+        <v>110424.702467577</v>
       </c>
       <c r="D10" t="n">
-        <v>93503.8617229984</v>
+        <v>96510.282519972</v>
       </c>
       <c r="E10" t="n">
-        <v>176951.259444103</v>
+        <v>162994.6324046</v>
       </c>
       <c r="F10" t="n">
-        <v>194415.852802408</v>
+        <v>176909.052352205</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>44958</v>
@@ -754,19 +754,19 @@
         <v>44986</v>
       </c>
       <c r="B11" t="n">
-        <v>116026.355073288</v>
+        <v>126171.989403849</v>
       </c>
       <c r="C11" t="n">
-        <v>82978.1681550808</v>
+        <v>99829.9706352012</v>
       </c>
       <c r="D11" t="n">
-        <v>65483.5147728995</v>
+        <v>85885.3482301968</v>
       </c>
       <c r="E11" t="n">
-        <v>149074.541991494</v>
+        <v>152514.008172496</v>
       </c>
       <c r="F11" t="n">
-        <v>166569.195373676</v>
+        <v>166458.6305775</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>44986</v>
@@ -792,19 +792,19 @@
         <v>45017</v>
       </c>
       <c r="B12" t="n">
-        <v>92220.1026491996</v>
+        <v>103592.633730363</v>
       </c>
       <c r="C12" t="n">
-        <v>59167.0471576493</v>
+        <v>77250.6149617152</v>
       </c>
       <c r="D12" t="n">
-        <v>41669.8165084209</v>
+        <v>63305.9925567108</v>
       </c>
       <c r="E12" t="n">
-        <v>125273.15814075</v>
+        <v>129934.65249901</v>
       </c>
       <c r="F12" t="n">
-        <v>142770.388789978</v>
+        <v>143879.274904014</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>45017</v>
@@ -830,19 +830,19 @@
         <v>45047</v>
       </c>
       <c r="B13" t="n">
-        <v>110852.177887197</v>
+        <v>114525.174992574</v>
       </c>
       <c r="C13" t="n">
-        <v>77783.8800809823</v>
+        <v>88183.1562239266</v>
       </c>
       <c r="D13" t="n">
-        <v>60278.5806377695</v>
+        <v>74238.5338189222</v>
       </c>
       <c r="E13" t="n">
-        <v>143920.475693412</v>
+        <v>140867.193761221</v>
       </c>
       <c r="F13" t="n">
-        <v>161425.775136625</v>
+        <v>154811.816166226</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>45047</v>
@@ -868,19 +868,19 @@
         <v>45078</v>
       </c>
       <c r="B14" t="n">
-        <v>129732.349323002</v>
+        <v>132305.850055372</v>
       </c>
       <c r="C14" t="n">
-        <v>96659.4265950625</v>
+        <v>105963.831286725</v>
       </c>
       <c r="D14" t="n">
-        <v>79151.6788661786</v>
+        <v>92019.2088817206</v>
       </c>
       <c r="E14" t="n">
-        <v>162805.272050942</v>
+        <v>158647.86882402</v>
       </c>
       <c r="F14" t="n">
-        <v>180313.019779825</v>
+        <v>172592.491229024</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>45078</v>
@@ -906,19 +906,19 @@
         <v>45108</v>
       </c>
       <c r="B15" t="n">
-        <v>143559.526069774</v>
+        <v>149494.023236271</v>
       </c>
       <c r="C15" t="n">
-        <v>110486.472799851</v>
+        <v>123152.004467624</v>
       </c>
       <c r="D15" t="n">
-        <v>92978.655966216</v>
+        <v>109207.38206262</v>
       </c>
       <c r="E15" t="n">
-        <v>176632.579339696</v>
+        <v>175836.042004919</v>
       </c>
       <c r="F15" t="n">
-        <v>194140.396173331</v>
+        <v>189780.664409923</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>45108</v>
@@ -944,19 +944,19 @@
         <v>45139</v>
       </c>
       <c r="B16" t="n">
-        <v>144719.477693667</v>
+        <v>147699.088956119</v>
       </c>
       <c r="C16" t="n">
-        <v>111646.266710524</v>
+        <v>121357.070187471</v>
       </c>
       <c r="D16" t="n">
-        <v>94138.3663885534</v>
+        <v>107412.447782467</v>
       </c>
       <c r="E16" t="n">
-        <v>177792.68867681</v>
+        <v>174041.107724766</v>
       </c>
       <c r="F16" t="n">
-        <v>195300.588998781</v>
+        <v>187985.730129771</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>45139</v>
@@ -982,19 +982,19 @@
         <v>45170</v>
       </c>
       <c r="B17" t="n">
-        <v>117954.192942142</v>
+        <v>122487.996951571</v>
       </c>
       <c r="C17" t="n">
-        <v>84880.8234033139</v>
+        <v>96145.9781829233</v>
       </c>
       <c r="D17" t="n">
-        <v>67372.839147033</v>
+        <v>82201.3557779189</v>
       </c>
       <c r="E17" t="n">
-        <v>151027.562480971</v>
+        <v>148830.015720218</v>
       </c>
       <c r="F17" t="n">
-        <v>168535.546737252</v>
+        <v>162774.638125222</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>45170</v>
@@ -1020,19 +1020,19 @@
         <v>45200</v>
       </c>
       <c r="B18" t="n">
-        <v>110582.733623228</v>
+        <v>114619.404931171</v>
       </c>
       <c r="C18" t="n">
-        <v>77509.3363126097</v>
+        <v>88277.3861625234</v>
       </c>
       <c r="D18" t="n">
-        <v>60001.3373548314</v>
+        <v>74332.763757519</v>
       </c>
       <c r="E18" t="n">
-        <v>143656.130933845</v>
+        <v>140961.423699818</v>
       </c>
       <c r="F18" t="n">
-        <v>161164.129891624</v>
+        <v>154906.046104822</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>45200</v>
@@ -1058,19 +1058,19 @@
         <v>45231</v>
       </c>
       <c r="B19" t="n">
-        <v>119153.643558459</v>
+        <v>116574.375988284</v>
       </c>
       <c r="C19" t="n">
-        <v>86080.246301129</v>
+        <v>90232.3581815883</v>
       </c>
       <c r="D19" t="n">
-        <v>68572.2473715595</v>
+        <v>76287.7362858106</v>
       </c>
       <c r="E19" t="n">
-        <v>152227.040815789</v>
+        <v>142916.393794979</v>
       </c>
       <c r="F19" t="n">
-        <v>169735.039745359</v>
+        <v>156861.015690757</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>45231</v>
@@ -1096,19 +1096,19 @@
         <v>45261</v>
       </c>
       <c r="B20" t="n">
-        <v>178575.137088849</v>
+        <v>150943.967965004</v>
       </c>
       <c r="C20" t="n">
-        <v>145501.737728532</v>
+        <v>124601.958254685</v>
       </c>
       <c r="D20" t="n">
-        <v>127993.737685708</v>
+        <v>110657.340644869</v>
       </c>
       <c r="E20" t="n">
-        <v>211648.536449166</v>
+        <v>177285.977675324</v>
       </c>
       <c r="F20" t="n">
-        <v>229156.536491989</v>
+        <v>191230.59528514</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>45261</v>
@@ -1134,19 +1134,19 @@
         <v>45292</v>
       </c>
       <c r="B21" t="n">
-        <v>166870.577109474</v>
+        <v>159317.043203284</v>
       </c>
       <c r="C21" t="n">
-        <v>132627.331097546</v>
+        <v>132139.933676492</v>
       </c>
       <c r="D21" t="n">
-        <v>114500.051645209</v>
+        <v>117753.240927582</v>
       </c>
       <c r="E21" t="n">
-        <v>201113.823121401</v>
+        <v>186494.152730075</v>
       </c>
       <c r="F21" t="n">
-        <v>219241.102573739</v>
+        <v>200880.845478985</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>45292</v>
@@ -1172,19 +1172,19 @@
         <v>45323</v>
       </c>
       <c r="B22" t="n">
-        <v>148927.39366473</v>
+        <v>141752.402266427</v>
       </c>
       <c r="C22" t="n">
-        <v>114085.844392177</v>
+        <v>114114.265529318</v>
       </c>
       <c r="D22" t="n">
-        <v>95641.8423254352</v>
+        <v>99483.5197173999</v>
       </c>
       <c r="E22" t="n">
-        <v>183768.942937282</v>
+        <v>169390.539003536</v>
       </c>
       <c r="F22" t="n">
-        <v>202212.945004024</v>
+        <v>184021.284815454</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>45323</v>
@@ -1210,19 +1210,19 @@
         <v>45352</v>
       </c>
       <c r="B23" t="n">
-        <v>120993.891475314</v>
+        <v>131214.724234187</v>
       </c>
       <c r="C23" t="n">
-        <v>86098.5680580203</v>
+        <v>103522.321454525</v>
       </c>
       <c r="D23" t="n">
-        <v>67626.099678572</v>
+        <v>88862.8489349288</v>
       </c>
       <c r="E23" t="n">
-        <v>155889.214892608</v>
+        <v>158907.127013849</v>
       </c>
       <c r="F23" t="n">
-        <v>174361.683272056</v>
+        <v>173566.599533445</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>45352</v>
@@ -1248,19 +1248,19 @@
         <v>45383</v>
       </c>
       <c r="B24" t="n">
-        <v>97187.6390512263</v>
+        <v>108635.368560701</v>
       </c>
       <c r="C24" t="n">
-        <v>62287.7047368997</v>
+        <v>80942.9657810391</v>
       </c>
       <c r="D24" t="n">
-        <v>43812.7954960036</v>
+        <v>66283.4932614427</v>
       </c>
       <c r="E24" t="n">
-        <v>132087.573365553</v>
+        <v>136327.771340363</v>
       </c>
       <c r="F24" t="n">
-        <v>150562.482606449</v>
+        <v>150987.243859959</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>45383</v>
@@ -1286,19 +1286,19 @@
         <v>45413</v>
       </c>
       <c r="B25" t="n">
-        <v>115819.714289224</v>
+        <v>119567.909822912</v>
       </c>
       <c r="C25" t="n">
-        <v>80905.3439294805</v>
+        <v>91875.5070432505</v>
       </c>
       <c r="D25" t="n">
-        <v>62422.792707758</v>
+        <v>77216.0345236541</v>
       </c>
       <c r="E25" t="n">
-        <v>150734.084648967</v>
+        <v>147260.312602574</v>
       </c>
       <c r="F25" t="n">
-        <v>169216.63587069</v>
+        <v>161919.78512217</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>45413</v>
@@ -1324,19 +1324,19 @@
         <v>45444</v>
       </c>
       <c r="B26" t="n">
-        <v>134699.885725029</v>
+        <v>137348.584885711</v>
       </c>
       <c r="C26" t="n">
-        <v>99781.134951482</v>
+        <v>109656.182106049</v>
       </c>
       <c r="D26" t="n">
-        <v>81296.2648787634</v>
+        <v>94996.7095864525</v>
       </c>
       <c r="E26" t="n">
-        <v>169618.636498575</v>
+        <v>165040.987665372</v>
       </c>
       <c r="F26" t="n">
-        <v>188103.506571294</v>
+        <v>179700.460184969</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>45444</v>
@@ -1362,19 +1362,19 @@
         <v>45474</v>
       </c>
       <c r="B27" t="n">
-        <v>148527.0624718</v>
+        <v>154536.75806661</v>
       </c>
       <c r="C27" t="n">
-        <v>113608.18805678</v>
+        <v>126844.355286948</v>
       </c>
       <c r="D27" t="n">
-        <v>95123.2525322196</v>
+        <v>112184.882767352</v>
       </c>
       <c r="E27" t="n">
-        <v>183445.93688682</v>
+        <v>182229.160846271</v>
       </c>
       <c r="F27" t="n">
-        <v>201930.872411381</v>
+        <v>196888.633365868</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>45474</v>
@@ -1400,19 +1400,19 @@
         <v>45505</v>
       </c>
       <c r="B28" t="n">
-        <v>149687.014095694</v>
+        <v>152741.823786457</v>
       </c>
       <c r="C28" t="n">
-        <v>114767.99030418</v>
+        <v>125049.421006795</v>
       </c>
       <c r="D28" t="n">
-        <v>96282.9757044804</v>
+        <v>110389.948487199</v>
       </c>
       <c r="E28" t="n">
-        <v>184606.037887207</v>
+        <v>180434.226566119</v>
       </c>
       <c r="F28" t="n">
-        <v>203091.052486907</v>
+        <v>195093.699085715</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>45505</v>
@@ -1438,19 +1438,19 @@
         <v>45536</v>
       </c>
       <c r="B29" t="n">
-        <v>122921.729344169</v>
+        <v>127530.731781909</v>
       </c>
       <c r="C29" t="n">
-        <v>88002.5553781556</v>
+        <v>99838.3290022471</v>
       </c>
       <c r="D29" t="n">
-        <v>69517.4612808773</v>
+        <v>85178.8564826508</v>
       </c>
       <c r="E29" t="n">
-        <v>157840.903310182</v>
+        <v>155223.134561571</v>
       </c>
       <c r="F29" t="n">
-        <v>176325.997407461</v>
+        <v>169882.607081167</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>45536</v>
@@ -1476,19 +1476,19 @@
         <v>45566</v>
       </c>
       <c r="B30" t="n">
-        <v>115550.270025254</v>
+        <v>119662.139761509</v>
       </c>
       <c r="C30" t="n">
-        <v>80631.0697554486</v>
+        <v>91969.7369818472</v>
       </c>
       <c r="D30" t="n">
-        <v>62145.9617337839</v>
+        <v>77310.2644622509</v>
       </c>
       <c r="E30" t="n">
-        <v>150469.47029506</v>
+        <v>147354.542541171</v>
       </c>
       <c r="F30" t="n">
-        <v>168954.578316725</v>
+        <v>162014.015060767</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>45566</v>
@@ -1514,19 +1514,19 @@
         <v>45597</v>
       </c>
       <c r="B31" t="n">
-        <v>124121.179960486</v>
+        <v>121617.110818622</v>
       </c>
       <c r="C31" t="n">
-        <v>89201.9797411512</v>
+        <v>93924.7089540038</v>
       </c>
       <c r="D31" t="n">
-        <v>70716.8717462042</v>
+        <v>79265.2369188024</v>
       </c>
       <c r="E31" t="n">
-        <v>159040.38017982</v>
+        <v>149309.51268324</v>
       </c>
       <c r="F31" t="n">
-        <v>177525.488174767</v>
+        <v>163968.984718441</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>45597</v>
@@ -1552,19 +1552,19 @@
         <v>45627</v>
       </c>
       <c r="B32" t="n">
-        <v>183542.673490875</v>
+        <v>155986.702795343</v>
       </c>
       <c r="C32" t="n">
-        <v>148623.471279716</v>
+        <v>128294.308632291</v>
       </c>
       <c r="D32" t="n">
-        <v>130138.362230361</v>
+        <v>113634.840674052</v>
       </c>
       <c r="E32" t="n">
-        <v>218461.875702034</v>
+        <v>183679.096958395</v>
       </c>
       <c r="F32" t="n">
-        <v>236946.98475139</v>
+        <v>198338.564916633</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>45627</v>
@@ -1590,19 +1590,19 @@
         <v>45658</v>
       </c>
       <c r="B33" t="n">
-        <v>171838.1135115</v>
+        <v>164359.778033622</v>
       </c>
       <c r="C33" t="n">
-        <v>135808.947059164</v>
+        <v>135871.841970536</v>
       </c>
       <c r="D33" t="n">
-        <v>116736.258433535</v>
+        <v>120791.239569233</v>
       </c>
       <c r="E33" t="n">
-        <v>207867.279963837</v>
+        <v>192847.714096708</v>
       </c>
       <c r="F33" t="n">
-        <v>226939.968589466</v>
+        <v>207928.316498011</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>45658</v>
@@ -1628,19 +1628,19 @@
         <v>45689</v>
       </c>
       <c r="B34" t="n">
-        <v>153894.930066756</v>
+        <v>146795.137096765</v>
       </c>
       <c r="C34" t="n">
-        <v>117296.644676202</v>
+        <v>117867.056946116</v>
       </c>
       <c r="D34" t="n">
-        <v>97922.6826832318</v>
+        <v>102553.456339217</v>
       </c>
       <c r="E34" t="n">
-        <v>190493.215457311</v>
+        <v>175723.217247414</v>
       </c>
       <c r="F34" t="n">
-        <v>209867.177450281</v>
+        <v>191036.817854313</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>45689</v>
@@ -1666,19 +1666,19 @@
         <v>45717</v>
       </c>
       <c r="B35" t="n">
-        <v>125961.427877341</v>
+        <v>136257.459064525</v>
       </c>
       <c r="C35" t="n">
-        <v>89311.9458316919</v>
+        <v>107277.528239655</v>
       </c>
       <c r="D35" t="n">
-        <v>69910.8819666157</v>
+        <v>91936.4795438371</v>
       </c>
       <c r="E35" t="n">
-        <v>162610.90992299</v>
+        <v>165237.389889395</v>
       </c>
       <c r="F35" t="n">
-        <v>182011.973788066</v>
+        <v>180578.438585213</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>45717</v>
@@ -1704,19 +1704,19 @@
         <v>45748</v>
       </c>
       <c r="B36" t="n">
-        <v>102155.175453253</v>
+        <v>113678.103391039</v>
       </c>
       <c r="C36" t="n">
-        <v>65501.3031754005</v>
+        <v>84698.1725661688</v>
       </c>
       <c r="D36" t="n">
-        <v>46097.915261781</v>
+        <v>69357.1238703511</v>
       </c>
       <c r="E36" t="n">
-        <v>138809.047731105</v>
+        <v>142658.034215909</v>
       </c>
       <c r="F36" t="n">
-        <v>158212.435644725</v>
+        <v>157999.082911727</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>45748</v>
@@ -1742,19 +1742,19 @@
         <v>45778</v>
       </c>
       <c r="B37" t="n">
-        <v>120787.250691251</v>
+        <v>124610.644653251</v>
       </c>
       <c r="C37" t="n">
-        <v>84119.6328870607</v>
+        <v>95630.7138283802</v>
       </c>
       <c r="D37" t="n">
-        <v>64708.968531335</v>
+        <v>80289.6651325625</v>
       </c>
       <c r="E37" t="n">
-        <v>157454.86849544</v>
+        <v>153590.575478121</v>
       </c>
       <c r="F37" t="n">
-        <v>176865.532851166</v>
+        <v>168931.624173939</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>45778</v>
